--- a/Project/testdata/data.xlsx
+++ b/Project/testdata/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,15 +412,87 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1</v>
+        <v>searchValue</v>
       </c>
       <c r="B2" t="str">
         <v>Gear</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>firstName</v>
+      </c>
+      <c r="B3" t="str">
+        <v>firstname</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>lastName</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Lastname</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>email</v>
+      </c>
+      <c r="B5" t="str">
+        <v>demo@email.com</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>phone</v>
+      </c>
+      <c r="B6" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>postCode</v>
+      </c>
+      <c r="B7" t="str">
+        <v>100001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>state</v>
+      </c>
+      <c r="B8" t="str">
+        <v>State</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>city</v>
+      </c>
+      <c r="B9" t="str">
+        <v>City</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>address</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Address</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>coupon</v>
+      </c>
+      <c r="B11" t="str">
+        <v>demo</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Project/testdata/data.xlsx
+++ b/Project/testdata/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Raj" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,9 +418,129 @@
         <v>Gear</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>First name</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Lastname</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Email</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>password</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Demo@email.com</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Password</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>city</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Name</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>These credentials do not match our records.</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Login page</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>https://avoncycles.com/customer/login.html</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>https://avoncycles.com/category/new-launches.html</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>https://avonfitnessmachines.com/domestic-treadmills</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>https://avoncycles.com/customer/register.html</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B17"/>
   </ignoredErrors>
 </worksheet>
 </file>